--- a/biology/Zoologie/Hexura/Hexura.xlsx
+++ b/biology/Zoologie/Hexura/Hexura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hexura est un genre d'araignées mygalomorphes de la famille des Antrodiaetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hexura est un genre d'araignées mygalomorphes de la famille des Antrodiaetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis[1]. Elles se rencontrent en Oregon et dans l'État de Washington[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre sont endémiques des États-Unis. Elles se rencontrent en Oregon et dans l'État de Washington.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 23/01/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 23/01/2024) :
 Hexura picea Simon, 1885
 Hexura rothi Gertsch &amp; Platnick, 1979</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1885 dans les Aviculariidae. Il est placé dans les Antrodiaetidae par Hedin, Derkarabetian, Alfaro, Ramírez et Bond en 2019[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1885 dans les Aviculariidae. Il est placé dans les Antrodiaetidae par Hedin, Derkarabetian, Alfaro, Ramírez et Bond en 2019.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Note sur le groupe des Mecicobothria. » Bulletin de la Société Zoologique de France, vol. 9, p. 313-317 (texte intégral).</t>
         </is>
